--- a/biology/Botanique/Dialium/Dialium.xlsx
+++ b/biology/Botanique/Dialium/Dialium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dialium est un genre de plantes dicotylédones de la famille des Fabaceae, sous-famille des Caesalpinioideae, à répartition pantropicale, qui comprend une quarantaine d'espèces acceptées.
-Ce sont des arbres pouvant atteindre 35 mètres de haut. Certaines espèces sont exploitées pour leur bois dur, apprécié comme bois d'œuvre. D'autres fournissent des fruits dont la pulpe et les graines sont comestibles[2].
+Ce sont des arbres pouvant atteindre 35 mètres de haut. Certaines espèces sont exploitées pour leur bois dur, apprécié comme bois d'œuvre. D'autres fournissent des fruits dont la pulpe et les graines sont comestibles.
 En indonésie, le fruit de Dialium indum est appelé karanji.
 </t>
         </is>
@@ -513,9 +525,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant List            (6 novembre 2018)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (6 novembre 2018) :
 Dialium angolense Oliv.
 Dialium aubrevillei Pellegr.
 Dialium bipindense Harms
